--- a/data/trans_dic/P32D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Edad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en atracón más de una vez al mes (Binge drinking) (6/5 o más bebidas estándar para hombre/mujer, respectivamente; 5/4 si mayores de 65 años) en una misma ocasión (entre 4-6h) (tasa de respuesta: 99,36%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking) (tasa de respuesta: 99,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1042,7 +1042,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en atracón más de una vez al mes (Binge drinking) (6/5 o más bebidas estándar para hombre/mujer, respectivamente; 5/4 si mayores de 65 años) en una misma ocasión (entre 4-6h) (tasa de respuesta: 99,36%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking) (tasa de respuesta: 99,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Edad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1016789437681289</v>
+        <v>0.09597058321295573</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08812951102919454</v>
+        <v>0.08086174045364054</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1141837770509559</v>
+        <v>0.1113756347805302</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.277157860882349</v>
+        <v>0.2890056309305018</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2720197890216254</v>
+        <v>0.2686924549244079</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2368864873524606</v>
+        <v>0.2449840381031781</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.1043993762002274</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1094775933256524</v>
+        <v>0.1094775933256523</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0699515985204603</v>
+        <v>0.06469133669467866</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05857476215636</v>
+        <v>0.06085003912740673</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07607471997711598</v>
+        <v>0.07483119051174815</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.178385960475985</v>
+        <v>0.1736262188408332</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1687621296881799</v>
+        <v>0.1723255369439186</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1546153349828578</v>
+        <v>0.1527154145063603</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.09490397721503163</v>
+        <v>0.09490397721503159</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.03877534545083318</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06671810856020682</v>
+        <v>0.06325166614954107</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01840574692456167</v>
+        <v>0.01634551672041245</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05182368518360113</v>
+        <v>0.0541428267793998</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1343380699519881</v>
+        <v>0.1341742594224755</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07448381470137728</v>
+        <v>0.07100995897653944</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.100481767429397</v>
+        <v>0.1031228087234722</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.08610757712730158</v>
+        <v>0.08610757712730156</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.05116512117477445</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06016121670282885</v>
+        <v>0.05915152856512378</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03062873115781436</v>
+        <v>0.02905830794343656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05158929906634433</v>
+        <v>0.05552110293511009</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1195532865025227</v>
+        <v>0.1188980550668307</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07807337267159138</v>
+        <v>0.07937870529871076</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09489395500140384</v>
+        <v>0.09831452767434323</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.0832936386435839</v>
+        <v>0.08329363864358388</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.04570023225874788</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.07033004711803501</v>
+        <v>0.07033004711803502</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05525407238559804</v>
+        <v>0.05513721045601085</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02446665394370403</v>
+        <v>0.02416427600679959</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04956343541411871</v>
+        <v>0.04916590407662292</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1170971987845832</v>
+        <v>0.1174194413653943</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08049304575284538</v>
+        <v>0.07904107307609198</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0944962540515135</v>
+        <v>0.09319312324963025</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.07063541696348016</v>
+        <v>0.07063541696348018</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.04761076645037145</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04484820856566141</v>
+        <v>0.04453137855242555</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02344075850373336</v>
+        <v>0.02208135811853149</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04360862071642492</v>
+        <v>0.04295101761236741</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1070725285265396</v>
+        <v>0.1065714117089943</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09864593056306806</v>
+        <v>0.09865483468067449</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09491375463723642</v>
+        <v>0.0929899924309209</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.05693934654592855</v>
+        <v>0.05693934654592856</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.07667876211976342</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02504911034886114</v>
+        <v>0.02472368043738341</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03138633412298088</v>
+        <v>0.03005900180348911</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1165590888086252</v>
+        <v>0.1133757498099884</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2928329819066085</v>
+        <v>0.2486587596236443</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1113625698763068</v>
+        <v>0.1125055608221028</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.09654572999107143</v>
+        <v>0.09654572999107146</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.07098942938712387</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08262968922257473</v>
+        <v>0.08144621024209657</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05649558865560381</v>
+        <v>0.05495262141314547</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07564053034771717</v>
+        <v>0.07658115204466309</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1137248957514352</v>
+        <v>0.1142523877741546</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09129741785422876</v>
+        <v>0.09152901146971104</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1002592540849506</v>
+        <v>0.100230720776468</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>16903</v>
+        <v>15954</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9945</v>
+        <v>9125</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>31867</v>
+        <v>31083</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>46076</v>
+        <v>48045</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>30695</v>
+        <v>30320</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>66111</v>
+        <v>68371</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17346</v>
+        <v>16042</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8961</v>
+        <v>9310</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30503</v>
+        <v>30004</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>44235</v>
+        <v>43054</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25819</v>
+        <v>26364</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>61995</v>
+        <v>61233</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20868</v>
+        <v>19784</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3128</v>
+        <v>2778</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>25016</v>
+        <v>26136</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>42019</v>
+        <v>41968</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12657</v>
+        <v>12067</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>48505</v>
+        <v>49779</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>21287</v>
+        <v>20930</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6428</v>
+        <v>6098</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>29081</v>
+        <v>31297</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42302</v>
+        <v>42071</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16384</v>
+        <v>16658</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>53491</v>
+        <v>55419</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>15416</v>
+        <v>15384</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3593</v>
+        <v>3549</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21107</v>
+        <v>20938</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>32671</v>
+        <v>32761</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11821</v>
+        <v>11607</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40242</v>
+        <v>39687</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9188</v>
+        <v>9123</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1894</v>
+        <v>1784</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12458</v>
+        <v>12271</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>21936</v>
+        <v>21834</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>7972</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>27116</v>
+        <v>26566</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2702</v>
+        <v>2667</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4355</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>12574</v>
+        <v>12231</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>9042</v>
+        <v>7678</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15452</v>
+        <v>15611</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>138206</v>
+        <v>136227</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>51081</v>
+        <v>49686</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>194908</v>
+        <v>197331</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>190216</v>
+        <v>191098</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>82548</v>
+        <v>82757</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>258344</v>
+        <v>258271</v>
       </c>
     </row>
     <row r="36">
